--- a/數據分析/TOA.xlsx
+++ b/數據分析/TOA.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/數據分析/TOA.xlsx
+++ b/數據分析/TOA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>ns</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,17 @@
   </si>
   <si>
     <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutted</t>
+  </si>
+  <si>
+    <t>cutted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area*0.9(loop)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,16 +448,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,8 +709,14 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
       <c r="D19" t="s">
         <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,11 +726,17 @@
       <c r="B20">
         <v>7191</v>
       </c>
+      <c r="C20">
+        <v>6471</v>
+      </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20">
         <v>10222</v>
+      </c>
+      <c r="F20">
+        <v>9198</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -721,11 +746,17 @@
       <c r="B21">
         <v>8951</v>
       </c>
+      <c r="C21">
+        <v>8055</v>
+      </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21">
         <v>12352</v>
+      </c>
+      <c r="F21">
+        <v>11115</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,11 +766,17 @@
       <c r="B22">
         <v>7248</v>
       </c>
+      <c r="C22">
+        <v>6521</v>
+      </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22">
         <v>11552</v>
+      </c>
+      <c r="F22">
+        <v>10394</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,11 +786,105 @@
       <c r="B23">
         <v>6054</v>
       </c>
+      <c r="C23">
+        <v>5447</v>
+      </c>
       <c r="D23" t="s">
         <v>19</v>
       </c>
       <c r="E23">
         <v>9459</v>
+      </c>
+      <c r="F23">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>293.10000000000002</v>
+      </c>
+      <c r="C26">
+        <v>470.9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="F26">
+        <v>332.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>564.1</v>
+      </c>
+      <c r="C27">
+        <v>730.7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>423.5</v>
+      </c>
+      <c r="F27">
+        <v>592.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>823.1</v>
+      </c>
+      <c r="C28">
+        <v>1002.5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>685.2</v>
+      </c>
+      <c r="F28">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>1083</v>
+      </c>
+      <c r="C29">
+        <v>1273.4000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>936.5</v>
+      </c>
+      <c r="F29">
+        <v>1141.5</v>
       </c>
     </row>
   </sheetData>

--- a/數據分析/TOA.xlsx
+++ b/數據分析/TOA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>ns</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>area*0.9(loop)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -621,8 +629,20 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" t="s">
         <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,8 +823,20 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
       <c r="D25" t="s">
         <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">

--- a/數據分析/TOA.xlsx
+++ b/數據分析/TOA.xlsx
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
